--- a/PhoenixCI/Excel_Template/30380.xlsx
+++ b/PhoenixCI/Excel_Template/30380.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E04A43-9267-4FD9-97D2-FAA96187EAF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0614FD10-0F9D-4FC1-AD83-971AB0E5A18B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="30381" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -740,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -754,11 +753,11 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,6 +839,9 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,6 +857,9 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,6 +875,9 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,12 +888,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -924,6 +935,9 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,6 +955,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1071,7 +1086,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8A52-4D26-A656-0A6F49ED5E50}"/>
+              <c16:uniqueId val="{00000000-BF75-49D4-A250-990F348CC7AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1113,7 +1128,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8A52-4D26-A656-0A6F49ED5E50}"/>
+              <c16:uniqueId val="{00000001-BF75-49D4-A250-990F348CC7AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1126,7 +1141,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="428069008"/>
+        <c:axId val="391823320"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1182,7 +1197,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8A52-4D26-A656-0A6F49ED5E50}"/>
+              <c16:uniqueId val="{00000002-BF75-49D4-A250-990F348CC7AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1236,7 +1251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8A52-4D26-A656-0A6F49ED5E50}"/>
+              <c16:uniqueId val="{00000003-BF75-49D4-A250-990F348CC7AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1254,7 +1269,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="428069008"/>
+        <c:axId val="391823320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,7 +1351,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428069008"/>
+        <c:crossAx val="391823320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -1421,10 +1436,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
+          <c:wMode val="edge"/>
+          <c:hMode val="edge"/>
           <c:x val="0.41158221302998965"/>
           <c:y val="2.5337837837837839E-2"/>
-          <c:w val="0.26990692864529475"/>
-          <c:h val="7.4324324324324315E-2"/>
+          <c:w val="0.6814891416752844"/>
+          <c:h val="9.9662162162162157E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1507,13 +1524,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9222267" cy="5626395"/>
+    <xdr:ext cx="9210675" cy="5619750"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95965B1-A9B5-4F0F-82D4-A4AE23977C55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB34D5FB-DF76-4A70-AF9D-A3C457680D36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,17 +1886,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
+      <c r="A1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
@@ -1925,14 +1942,14 @@
       <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A4" s="70"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="30"/>
       <c r="C4" s="25">
         <f>B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="29"/>
       <c r="G4" s="25">
         <f t="shared" ref="G4:G35" si="0">F4-F3</f>
@@ -1942,20 +1959,20 @@
         <f t="shared" ref="H4:H35" si="1">B4-F4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="75">
+      <c r="I4" s="81">
         <f>IF(D4=0,0,J4/D4) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="70"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="30"/>
       <c r="C5" s="13">
         <f>B5-B4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="29"/>
       <c r="G5" s="13">
         <f t="shared" si="0"/>
@@ -1965,20 +1982,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="82">
         <f>IF(D5=0,0,J5/D5) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="70"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="30"/>
       <c r="C6" s="3">
         <f t="shared" ref="C6:C34" si="2">B6-B5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="29"/>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
@@ -1988,20 +2005,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="77">
+      <c r="I6" s="83">
         <f>IF(D6=0,0,J6/D6) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="70"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="30"/>
       <c r="C7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="29"/>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
@@ -2011,20 +2028,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="77">
+      <c r="I7" s="83">
         <f>IF(D7=0,0,J7/D7) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="70"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="30"/>
       <c r="C8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="29"/>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
@@ -2034,20 +2051,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="83">
         <f t="shared" ref="I8:I34" si="3">IF(D8=0,0,J8/D8) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="70"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="30"/>
       <c r="C9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="29"/>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
@@ -2057,20 +2074,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="70"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="30"/>
       <c r="C10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="29"/>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
@@ -2080,20 +2097,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="77">
+      <c r="I10" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="70"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="30"/>
       <c r="C11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
       <c r="F11" s="29"/>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
@@ -2103,20 +2120,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="77">
+      <c r="I11" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="70"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="30"/>
       <c r="C12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="29"/>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
@@ -2126,20 +2143,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="70"/>
+      <c r="A13" s="76"/>
       <c r="B13" s="30"/>
       <c r="C13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="29"/>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
@@ -2149,20 +2166,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="70"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="30"/>
       <c r="C14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="29"/>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
@@ -2172,20 +2189,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="70"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="30"/>
       <c r="C15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="29"/>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
@@ -2195,20 +2212,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="70"/>
+      <c r="A16" s="76"/>
       <c r="B16" s="30"/>
       <c r="C16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="29"/>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
@@ -2218,7 +2235,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2230,8 +2247,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
@@ -2241,7 +2258,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2253,8 +2270,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
@@ -2264,7 +2281,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2276,8 +2293,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
@@ -2287,7 +2304,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2299,8 +2316,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
@@ -2310,7 +2327,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2322,8 +2339,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="1"/>
       <c r="G21" s="2">
         <f>F21-F20</f>
@@ -2333,7 +2350,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="83">
         <f>IF(D21=0,0,J21/D21) * 100</f>
         <v>0</v>
       </c>
@@ -2345,8 +2362,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="1"/>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
@@ -2356,7 +2373,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2368,8 +2385,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
@@ -2379,7 +2396,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2391,8 +2408,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
@@ -2402,7 +2419,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2414,8 +2431,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
@@ -2425,7 +2442,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2437,8 +2454,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
@@ -2448,7 +2465,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2460,8 +2477,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="1"/>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
@@ -2471,7 +2488,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2483,8 +2500,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
@@ -2494,7 +2511,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="77">
+      <c r="I28" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2506,8 +2523,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
@@ -2517,7 +2534,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="77">
+      <c r="I29" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2529,8 +2546,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="1"/>
       <c r="G30" s="2">
         <f>F30-F28</f>
@@ -2540,7 +2557,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="77">
+      <c r="I30" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2552,8 +2569,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
@@ -2563,7 +2580,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="77">
+      <c r="I31" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2575,8 +2592,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="1"/>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -2586,7 +2603,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="77">
+      <c r="I32" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2598,8 +2615,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
       <c r="F33" s="1"/>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
@@ -2609,7 +2626,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="77">
+      <c r="I33" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2621,8 +2638,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="1"/>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
@@ -2632,7 +2649,7 @@
         <f>B34-F34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="77">
+      <c r="I34" s="83">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2644,8 +2661,8 @@
         <f>B35-B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="12"/>
       <c r="G35" s="11">
         <f t="shared" si="0"/>
@@ -2655,7 +2672,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="84">
         <f>IF(D35=0,0,J35/D35) * 100</f>
         <v>0</v>
       </c>
@@ -2687,681 +2704,681 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="69"/>
+    <col min="1" max="1" width="9" style="75"/>
     <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.2" customHeight="1">
       <c r="A1" s="31"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="61" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.2" hidden="1" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="15.2" customHeight="1" thickBot="1">
       <c r="A4" s="28"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="62">
+      <c r="C4" s="66">
         <f t="shared" ref="C4:C20" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="62">
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="66">
         <f t="shared" ref="G4:G35" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="66">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71">
         <f t="shared" ref="I4:I35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42">
+      <c r="A5" s="72"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.2" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.2" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.2" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.2" customHeight="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48">
+      <c r="B9" s="45"/>
+      <c r="C9" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.2" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.2" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.2" customHeight="1">
       <c r="A12" s="27"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.2" customHeight="1">
       <c r="A13" s="27"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="27"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48">
+      <c r="B14" s="45"/>
+      <c r="C14" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48">
+      <c r="B15" s="45"/>
+      <c r="C15" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="27"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="27"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="27"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="27"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48">
+      <c r="B19" s="45"/>
+      <c r="C19" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="27"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44">
+      <c r="B21" s="45"/>
+      <c r="C21" s="46">
         <f>B21-B20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48">
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="27"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46">
         <f t="shared" ref="C22:C35" si="3">B22-B21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48">
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="27"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48">
+      <c r="B23" s="49"/>
+      <c r="C23" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="27"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48">
+      <c r="B24" s="49"/>
+      <c r="C24" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="27"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48">
+      <c r="B25" s="49"/>
+      <c r="C25" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="27"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48">
+      <c r="B26" s="49"/>
+      <c r="C26" s="52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="27"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48">
+      <c r="B27" s="49"/>
+      <c r="C27" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="27"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48">
+      <c r="B28" s="49"/>
+      <c r="C28" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="27"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48">
+      <c r="B29" s="49"/>
+      <c r="C29" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="27"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48">
+      <c r="B30" s="49"/>
+      <c r="C30" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48">
+      <c r="B31" s="49"/>
+      <c r="C31" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="27"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="48">
+      <c r="B32" s="49"/>
+      <c r="C32" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="27"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48">
+      <c r="B33" s="49"/>
+      <c r="C33" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="27"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48">
+      <c r="B34" s="49"/>
+      <c r="C34" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="50"/>
+      <c r="I34" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3374,73 +3391,73 @@
         <v>0</v>
       </c>
       <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37">
+      <c r="H35" s="37"/>
+      <c r="I35" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="68"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37"/>
+      <c r="A37" s="74"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38"/>
+      <c r="A38" s="74"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39"/>
+      <c r="A39" s="74"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40"/>
+      <c r="A40" s="74"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41"/>
+      <c r="A41" s="74"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42"/>
+      <c r="A42" s="74"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43"/>
+      <c r="A43" s="74"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44"/>
+      <c r="A44" s="74"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45"/>
+      <c r="A45" s="74"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46"/>
+      <c r="A46" s="74"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47"/>
+      <c r="A47" s="74"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48"/>
+      <c r="A48" s="74"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49"/>
+      <c r="A49" s="74"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50"/>
+      <c r="A50" s="74"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51"/>
+      <c r="A51" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/PhoenixCI/Excel_Template/30380.xlsx
+++ b/PhoenixCI/Excel_Template/30380.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0614FD10-0F9D-4FC1-AD83-971AB0E5A18B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3E04A43-9267-4FD9-97D2-FAA96187EAF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="14895" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="30381" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -739,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -753,11 +754,11 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,9 +840,6 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,9 +855,6 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +870,6 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,15 +880,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -935,9 +924,6 @@
     <xf numFmtId="181" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,7 +941,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1086,7 +1071,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF75-49D4-A250-990F348CC7AF}"/>
+              <c16:uniqueId val="{00000000-8A52-4D26-A656-0A6F49ED5E50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1128,7 +1113,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BF75-49D4-A250-990F348CC7AF}"/>
+              <c16:uniqueId val="{00000001-8A52-4D26-A656-0A6F49ED5E50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1141,7 +1126,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="391823320"/>
+        <c:axId val="428069008"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1197,7 +1182,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BF75-49D4-A250-990F348CC7AF}"/>
+              <c16:uniqueId val="{00000002-8A52-4D26-A656-0A6F49ED5E50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1251,7 +1236,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BF75-49D4-A250-990F348CC7AF}"/>
+              <c16:uniqueId val="{00000003-8A52-4D26-A656-0A6F49ED5E50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1269,7 +1254,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="391823320"/>
+        <c:axId val="428069008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1336,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="391823320"/>
+        <c:crossAx val="428069008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10000"/>
@@ -1436,12 +1421,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:wMode val="edge"/>
-          <c:hMode val="edge"/>
           <c:x val="0.41158221302998965"/>
           <c:y val="2.5337837837837839E-2"/>
-          <c:w val="0.6814891416752844"/>
-          <c:h val="9.9662162162162157E-2"/>
+          <c:w val="0.26990692864529475"/>
+          <c:h val="7.4324324324324315E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1524,13 +1507,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9210675" cy="5619750"/>
+    <xdr:ext cx="9222267" cy="5626395"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB34D5FB-DF76-4A70-AF9D-A3C457680D36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95965B1-A9B5-4F0F-82D4-A4AE23977C55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,17 +1869,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+      <c r="A1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:10" ht="30.75" customHeight="1" thickBot="1">
       <c r="A2" s="15" t="s">
@@ -1942,14 +1925,14 @@
       <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A4" s="76"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="30"/>
       <c r="C4" s="25">
         <f>B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="29"/>
       <c r="G4" s="25">
         <f t="shared" ref="G4:G35" si="0">F4-F3</f>
@@ -1959,20 +1942,20 @@
         <f t="shared" ref="H4:H35" si="1">B4-F4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="81">
+      <c r="I4" s="75">
         <f>IF(D4=0,0,J4/D4) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="76"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="30"/>
       <c r="C5" s="13">
         <f>B5-B4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="29"/>
       <c r="G5" s="13">
         <f t="shared" si="0"/>
@@ -1982,20 +1965,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="76">
         <f>IF(D5=0,0,J5/D5) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="76"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="30"/>
       <c r="C6" s="3">
         <f t="shared" ref="C6:C34" si="2">B6-B5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="29"/>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
@@ -2005,20 +1988,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="83">
+      <c r="I6" s="77">
         <f>IF(D6=0,0,J6/D6) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="76"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="30"/>
       <c r="C7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="29"/>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
@@ -2028,20 +2011,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="83">
+      <c r="I7" s="77">
         <f>IF(D7=0,0,J7/D7) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="76"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="30"/>
       <c r="C8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="29"/>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
@@ -2051,20 +2034,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="83">
+      <c r="I8" s="77">
         <f t="shared" ref="I8:I34" si="3">IF(D8=0,0,J8/D8) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="76"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="30"/>
       <c r="C9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
       <c r="F9" s="29"/>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
@@ -2074,20 +2057,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="76"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="30"/>
       <c r="C10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="29"/>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
@@ -2097,20 +2080,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="76"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="30"/>
       <c r="C11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="29"/>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
@@ -2120,20 +2103,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="83">
+      <c r="I11" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="76"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="30"/>
       <c r="C12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
       <c r="F12" s="29"/>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
@@ -2143,20 +2126,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="83">
+      <c r="I12" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="76"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="30"/>
       <c r="C13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="29"/>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
@@ -2166,20 +2149,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="83">
+      <c r="I13" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="76"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="30"/>
       <c r="C14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
       <c r="F14" s="29"/>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
@@ -2189,20 +2172,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="76"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="30"/>
       <c r="C15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
       <c r="F15" s="29"/>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
@@ -2212,20 +2195,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="83">
+      <c r="I15" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="76"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="30"/>
       <c r="C16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="29"/>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
@@ -2235,7 +2218,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2247,8 +2230,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
@@ -2258,7 +2241,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="83">
+      <c r="I17" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2270,8 +2253,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
@@ -2281,7 +2264,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="83">
+      <c r="I18" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2293,8 +2276,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="1"/>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
@@ -2304,7 +2287,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="83">
+      <c r="I19" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2316,8 +2299,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="1"/>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
@@ -2327,7 +2310,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="83">
+      <c r="I20" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2339,8 +2322,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="1"/>
       <c r="G21" s="2">
         <f>F21-F20</f>
@@ -2350,7 +2333,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="77">
         <f>IF(D21=0,0,J21/D21) * 100</f>
         <v>0</v>
       </c>
@@ -2362,8 +2345,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="1"/>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
@@ -2373,7 +2356,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="83">
+      <c r="I22" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2385,8 +2368,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
@@ -2396,7 +2379,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="83">
+      <c r="I23" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2408,8 +2391,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="1"/>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
@@ -2419,7 +2402,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="83">
+      <c r="I24" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2431,8 +2414,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="1"/>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
@@ -2442,7 +2425,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="83">
+      <c r="I25" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2454,8 +2437,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="1"/>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
@@ -2465,7 +2448,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="83">
+      <c r="I26" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2477,8 +2460,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="1"/>
       <c r="G27" s="2">
         <f t="shared" si="0"/>
@@ -2488,7 +2471,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="83">
+      <c r="I27" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2500,8 +2483,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="1"/>
       <c r="G28" s="2">
         <f t="shared" si="0"/>
@@ -2511,7 +2494,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="83">
+      <c r="I28" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2523,8 +2506,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="1"/>
       <c r="G29" s="2">
         <f t="shared" si="0"/>
@@ -2534,7 +2517,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="83">
+      <c r="I29" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2546,8 +2529,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="1"/>
       <c r="G30" s="2">
         <f>F30-F28</f>
@@ -2557,7 +2540,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="83">
+      <c r="I30" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2569,8 +2552,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="1"/>
       <c r="G31" s="2">
         <f t="shared" si="0"/>
@@ -2580,7 +2563,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="83">
+      <c r="I31" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2592,8 +2575,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="1"/>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -2603,7 +2586,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="83">
+      <c r="I32" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2615,8 +2598,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="1"/>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
@@ -2626,7 +2609,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="83">
+      <c r="I33" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2638,8 +2621,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="1"/>
       <c r="G34" s="3">
         <f t="shared" si="0"/>
@@ -2649,7 +2632,7 @@
         <f>B34-F34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="83">
+      <c r="I34" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2661,8 +2644,8 @@
         <f>B35-B34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="12"/>
       <c r="G35" s="11">
         <f t="shared" si="0"/>
@@ -2672,7 +2655,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="84">
+      <c r="I35" s="78">
         <f>IF(D35=0,0,J35/D35) * 100</f>
         <v>0</v>
       </c>
@@ -2704,681 +2687,681 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="75"/>
+    <col min="1" max="1" width="9" style="69"/>
     <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.2" customHeight="1">
       <c r="A1" s="31"/>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.2" hidden="1" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="15.2" customHeight="1" thickBot="1">
       <c r="A4" s="28"/>
       <c r="B4" s="33"/>
-      <c r="C4" s="66">
+      <c r="C4" s="62">
         <f t="shared" ref="C4:C20" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="66">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="62">
         <f t="shared" ref="G4:G35" si="1">F4-F3</f>
         <v>0</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71">
+      <c r="H4" s="65"/>
+      <c r="I4" s="66">
         <f t="shared" ref="I4:I35" si="2">B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.2" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44">
+      <c r="A5" s="67"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.2" customHeight="1">
       <c r="A6" s="27"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51">
+      <c r="B6" s="43"/>
+      <c r="C6" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="47"/>
+      <c r="I6" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.2" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.2" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51">
+      <c r="B8" s="43"/>
+      <c r="C8" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.2" customHeight="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51">
+      <c r="B9" s="43"/>
+      <c r="C9" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.2" customHeight="1">
       <c r="A10" s="27"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.2" customHeight="1">
       <c r="A11" s="27"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.2" customHeight="1">
       <c r="A12" s="27"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51">
+      <c r="B12" s="43"/>
+      <c r="C12" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.2" customHeight="1">
       <c r="A13" s="27"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51">
+      <c r="B13" s="43"/>
+      <c r="C13" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="27"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51">
+      <c r="B14" s="43"/>
+      <c r="C14" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="27"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="27"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="27"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="27"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="27"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="27"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="27"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44">
         <f>B21-B20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51">
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="27"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44">
         <f t="shared" ref="C22:C35" si="3">B22-B21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51">
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="27"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51">
+      <c r="B23" s="46"/>
+      <c r="C23" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="27"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51">
+      <c r="B24" s="46"/>
+      <c r="C24" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="27"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51">
+      <c r="B25" s="46"/>
+      <c r="C25" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="27"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="52">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51">
+      <c r="B26" s="46"/>
+      <c r="C26" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="27"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51">
+      <c r="B27" s="46"/>
+      <c r="C27" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="27"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51">
+      <c r="B28" s="46"/>
+      <c r="C28" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="27"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51">
+      <c r="B29" s="46"/>
+      <c r="C29" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="27"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51">
+      <c r="B30" s="46"/>
+      <c r="C30" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="27"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51">
+      <c r="B31" s="46"/>
+      <c r="C31" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="27"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="51">
+      <c r="B32" s="46"/>
+      <c r="C32" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="27"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="51">
+      <c r="B33" s="46"/>
+      <c r="C33" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="27"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51">
+      <c r="B34" s="46"/>
+      <c r="C34" s="44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3391,73 +3374,73 @@
         <v>0</v>
       </c>
       <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
+      <c r="E35" s="35"/>
       <c r="F35" s="33"/>
       <c r="G35" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="38">
+      <c r="H35" s="36"/>
+      <c r="I35" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="73"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="74"/>
+      <c r="A37"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="74"/>
+      <c r="A38"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="74"/>
+      <c r="A39"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="74"/>
+      <c r="A40"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="74"/>
+      <c r="A41"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="74"/>
+      <c r="A42"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="74"/>
+      <c r="A43"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="74"/>
+      <c r="A44"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="74"/>
+      <c r="A45"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="74"/>
+      <c r="A46"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="74"/>
+      <c r="A47"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="74"/>
+      <c r="A48"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="74"/>
+      <c r="A49"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="74"/>
+      <c r="A50"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="74"/>
+      <c r="A51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
